--- a/sputnik/personal/ee/248ee.xlsx
+++ b/sputnik/personal/ee/248ee.xlsx
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -42,19 +33,19 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t xml:space="preserve">переплата </t>
-  </si>
-  <si>
-    <t>сняли счетчик</t>
-  </si>
-  <si>
-    <t>переплата 393 квт/ч</t>
-  </si>
-  <si>
     <t>Т2</t>
   </si>
   <si>
-    <t>новые  показания</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
   </si>
 </sst>
 </file>
@@ -62,9 +53,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,35 +86,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -163,19 +125,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -188,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -201,7 +150,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -211,57 +160,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -571,10 +480,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -585,333 +494,107 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43029</v>
+        <v>43680</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1500</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="3">
+        <v>393</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43281</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>1700</v>
-      </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D8" si="0">SUM(C3,-C2)</f>
-        <v>200</v>
-      </c>
-      <c r="E3" s="6">
-        <v>4.29</v>
-      </c>
-      <c r="F3" s="20">
-        <f t="shared" ref="F3:F8" si="1">PRODUCT(D3,E3)</f>
-        <v>858</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43316</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1922</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>222</v>
-      </c>
-      <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="20">
-        <f t="shared" si="1"/>
-        <v>999</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43372</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2144</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>222</v>
-      </c>
-      <c r="E5" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F5" s="20">
-        <f t="shared" si="1"/>
-        <v>999</v>
-      </c>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>43622</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2200</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="E6" s="21">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="20">
-        <f t="shared" si="1"/>
-        <v>255.92000000000002</v>
-      </c>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>43661</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="23">
-        <v>2356</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-      <c r="E7" s="21">
-        <v>4.49</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="1"/>
-        <v>700.44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>43663</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="23">
-        <v>2512</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
-      <c r="E8" s="21">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="20">
-        <f t="shared" si="1"/>
-        <v>700.44</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>43680</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2119</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>43680</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>393</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/248ee.xlsx
+++ b/sputnik/personal/ee/248ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -137,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -173,6 +173,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -483,7 +484,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,22 +558,53 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="4">
+        <v>43976</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>600</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUM(C4,-C2)</f>
+        <v>207</v>
+      </c>
+      <c r="E4" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="6">
+        <f>PRODUCT(D4,E4)</f>
+        <v>929.43000000000006</v>
+      </c>
+      <c r="G4" s="15">
+        <f>SUM(F4,F5)</f>
+        <v>1172.43</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1172.43</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUM(C5,-C3)</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F5" s="6">
+        <f>PRODUCT(D5,E5)</f>
+        <v>243.00000000000003</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>

--- a/sputnik/personal/ee/248ee.xlsx
+++ b/sputnik/personal/ee/248ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -55,7 +55,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,14 +73,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -137,10 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -164,16 +155,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -481,10 +464,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -502,131 +485,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43680</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>393</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43976</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>600</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <f>SUM(C4,-C2)</f>
         <v>207</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>4.49</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>PRODUCT(D4,E4)</f>
         <v>929.43000000000006</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <f>SUM(F4,F5)</f>
         <v>1172.43</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="11">
         <v>1172.43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f>SUM(C5,-C3)</f>
         <v>100</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>PRODUCT(D5,E5)</f>
         <v>243.00000000000003</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A6" s="3">
+        <v>44007</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>700</v>
+      </c>
+      <c r="D6" s="2">
+        <f>SUM(C6,-C4)</f>
+        <v>100</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="5">
+        <f>PRODUCT(D6,E6)</f>
+        <v>449</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(F6,F7)</f>
+        <v>692</v>
+      </c>
+      <c r="H6" s="11">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(C7,-C5)</f>
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="5">
+        <f>PRODUCT(D7,E7)</f>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>44078</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>800</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C6)</f>
+        <v>100</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="5">
+        <f>PRODUCT(D8,E8)</f>
+        <v>471</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(F8,F9)</f>
+        <v>598.5</v>
+      </c>
+      <c r="H8" s="11">
+        <v>598.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>250</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C9,-C7)</f>
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="5">
+        <f>PRODUCT(D9,E9)</f>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/248ee.xlsx
+++ b/sputnik/personal/ee/248ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,26 +110,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -148,11 +133,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -467,7 +447,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,8 +503,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="7"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -537,8 +517,8 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -551,21 +531,21 @@
         <v>600</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
         <v>207</v>
       </c>
       <c r="E4" s="7">
         <v>4.49</v>
       </c>
       <c r="F4" s="5">
-        <f>PRODUCT(D4,E4)</f>
+        <f t="shared" ref="F4:F9" si="1">PRODUCT(D4,E4)</f>
         <v>929.43000000000006</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
         <v>1172.43</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <v>1172.43</v>
       </c>
     </row>
@@ -578,18 +558,18 @@
         <v>100</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="5">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" si="1"/>
         <v>243.00000000000003</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -602,21 +582,21 @@
         <v>700</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E6" s="7">
         <v>4.49</v>
       </c>
       <c r="F6" s="5">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="1"/>
         <v>449</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
         <v>692</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <v>692</v>
       </c>
     </row>
@@ -629,18 +609,18 @@
         <v>200</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="5">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="1"/>
         <v>243.00000000000003</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -653,21 +633,21 @@
         <v>800</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="1"/>
         <v>471</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
         <v>598.5</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="8">
         <v>598.5</v>
       </c>
     </row>
@@ -680,48 +660,85 @@
         <v>250</v>
       </c>
       <c r="D9" s="2">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="E9" s="2">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="5">
-        <f>PRODUCT(D9,E9)</f>
+        <f t="shared" si="1"/>
         <v>127.49999999999999</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="A10" s="3">
+        <v>44131</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F11" si="2">PRODUCT(D10,E10)</f>
+        <v>942</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>1069.5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1069.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>300</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/248ee.xlsx
+++ b/sputnik/personal/ee/248ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -444,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -725,12 +725,55 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="A12" s="3">
+        <v>44348</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1050</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D13" si="3">SUM(C12,-C10)</f>
+        <v>50</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F13" si="4">PRODUCT(D12,E12)</f>
+        <v>235.5</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>286.5</v>
+      </c>
+      <c r="H12" s="8">
+        <v>286.5</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>320</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G14" s="9"/>
@@ -739,6 +782,14 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/248ee.xlsx
+++ b/sputnik/personal/ee/248ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -447,7 +447,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -776,12 +776,55 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="A14" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1150</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:D15" si="5">SUM(C14,-C12)</f>
+        <v>100</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" ref="F14:F15" si="6">PRODUCT(D14,E14)</f>
+        <v>471</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>726</v>
+      </c>
+      <c r="H14" s="8">
+        <v>726</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>420</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="6"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G16" s="9"/>

--- a/sputnik/personal/ee/248ee.xlsx
+++ b/sputnik/personal/ee/248ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -136,7 +136,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -447,7 +446,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -827,12 +826,55 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="A16" s="3">
+        <v>44433</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1300</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="7">SUM(C16,-C14)</f>
+        <v>150</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F17" si="8">PRODUCT(D16,E16)</f>
+        <v>744</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(F16,F17)</f>
+        <v>824.4</v>
+      </c>
+      <c r="H16" s="8">
+        <v>824.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>450</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="8"/>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/248ee.xlsx
+++ b/sputnik/personal/ee/248ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -443,10 +443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -875,6 +875,57 @@
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>44473</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="9">SUM(C18,-C16)</f>
+        <v>100</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" ref="F18:F19" si="10">PRODUCT(D18,E18)</f>
+        <v>496</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(F18,F19)</f>
+        <v>630</v>
+      </c>
+      <c r="H18" s="8">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>500</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="10"/>
+        <v>134</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/248ee.xlsx
+++ b/sputnik/personal/ee/248ee.xlsx
@@ -79,12 +79,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -136,6 +142,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -877,7 +887,7 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="9">
         <v>44473</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -926,6 +936,16 @@
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="10">
+        <f>SUM(G2:G19)</f>
+        <v>5999.33</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H2:H19)</f>
+        <v>5999.33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
